--- a/natmiOut/YoungD4/LR-pairs_lrc2p/C3-Cd46.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/C3-Cd46.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.05211101684487</v>
+        <v>4.153678333333333</v>
       </c>
       <c r="H2">
-        <v>3.05211101684487</v>
+        <v>12.461035</v>
       </c>
       <c r="I2">
-        <v>0.01912548034354614</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="J2">
-        <v>0.01912548034354614</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.27826527842277</v>
+        <v>3.745615666666667</v>
       </c>
       <c r="N2">
-        <v>3.27826527842277</v>
+        <v>11.236847</v>
       </c>
       <c r="O2">
-        <v>0.7029147228812913</v>
+        <v>0.5698406620242048</v>
       </c>
       <c r="P2">
-        <v>0.7029147228812913</v>
+        <v>0.5698406620242049</v>
       </c>
       <c r="Q2">
-        <v>10.00562957241415</v>
+        <v>15.55808263962722</v>
       </c>
       <c r="R2">
-        <v>10.00562957241415</v>
+        <v>140.022743756645</v>
       </c>
       <c r="S2">
-        <v>0.01344358171565532</v>
+        <v>0.0129223376308313</v>
       </c>
       <c r="T2">
-        <v>0.01344358171565532</v>
+        <v>0.01292233763083131</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.05211101684487</v>
+        <v>4.153678333333333</v>
       </c>
       <c r="H3">
-        <v>3.05211101684487</v>
+        <v>12.461035</v>
       </c>
       <c r="I3">
-        <v>0.01912548034354614</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="J3">
-        <v>0.01912548034354614</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.848442928349793</v>
+        <v>1.578165333333333</v>
       </c>
       <c r="N3">
-        <v>0.848442928349793</v>
+        <v>4.734496</v>
       </c>
       <c r="O3">
-        <v>0.1819203069949593</v>
+        <v>0.2400947823700856</v>
       </c>
       <c r="P3">
-        <v>0.1819203069949593</v>
+        <v>0.2400947823700856</v>
       </c>
       <c r="Q3">
-        <v>2.589542008780526</v>
+        <v>6.555191151484443</v>
       </c>
       <c r="R3">
-        <v>2.589542008780526</v>
+        <v>58.99672036336</v>
       </c>
       <c r="S3">
-        <v>0.003479313255523973</v>
+        <v>0.005444655055267753</v>
       </c>
       <c r="T3">
-        <v>0.003479313255523973</v>
+        <v>0.005444655055267754</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.05211101684487</v>
+        <v>4.153678333333333</v>
       </c>
       <c r="H4">
-        <v>3.05211101684487</v>
+        <v>12.461035</v>
       </c>
       <c r="I4">
-        <v>0.01912548034354614</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="J4">
-        <v>0.01912548034354614</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.5371082871898289</v>
+        <v>0.2865006666666667</v>
       </c>
       <c r="N4">
-        <v>0.5371082871898289</v>
+        <v>0.859502</v>
       </c>
       <c r="O4">
-        <v>0.1151649701237495</v>
+        <v>0.04358688773560128</v>
       </c>
       <c r="P4">
-        <v>0.1151649701237495</v>
+        <v>0.04358688773560129</v>
       </c>
       <c r="Q4">
-        <v>1.639314120570755</v>
+        <v>1.190031611618889</v>
       </c>
       <c r="R4">
-        <v>1.639314120570755</v>
+        <v>10.71028450457</v>
       </c>
       <c r="S4">
-        <v>0.002202585372366849</v>
+        <v>0.0009884245143121344</v>
       </c>
       <c r="T4">
-        <v>0.002202585372366849</v>
+        <v>0.0009884245143121347</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>130.371518409563</v>
+        <v>4.153678333333333</v>
       </c>
       <c r="H5">
-        <v>130.371518409563</v>
+        <v>12.461035</v>
       </c>
       <c r="I5">
-        <v>0.8169486296333808</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="J5">
-        <v>0.8169486296333808</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>3.27826527842277</v>
+        <v>0.4218766666666667</v>
       </c>
       <c r="N5">
-        <v>3.27826527842277</v>
+        <v>1.26563</v>
       </c>
       <c r="O5">
-        <v>0.7029147228812913</v>
+        <v>0.06418236691108228</v>
       </c>
       <c r="P5">
-        <v>0.7029147228812913</v>
+        <v>0.0641823669110823</v>
       </c>
       <c r="Q5">
-        <v>427.3924220973254</v>
+        <v>1.752339969672222</v>
       </c>
       <c r="R5">
-        <v>427.3924220973254</v>
+        <v>15.77105972705</v>
       </c>
       <c r="S5">
-        <v>0.5742452196069986</v>
+        <v>0.001455470398031496</v>
       </c>
       <c r="T5">
-        <v>0.5742452196069986</v>
+        <v>0.001455470398031496</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>130.371518409563</v>
+        <v>4.153678333333333</v>
       </c>
       <c r="H6">
-        <v>130.371518409563</v>
+        <v>12.461035</v>
       </c>
       <c r="I6">
-        <v>0.8169486296333808</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="J6">
-        <v>0.8169486296333808</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.848442928349793</v>
+        <v>0.5409346666666667</v>
       </c>
       <c r="N6">
-        <v>0.848442928349793</v>
+        <v>1.622804</v>
       </c>
       <c r="O6">
-        <v>0.1819203069949593</v>
+        <v>0.08229530095902593</v>
       </c>
       <c r="P6">
-        <v>0.1819203069949593</v>
+        <v>0.08229530095902593</v>
       </c>
       <c r="Q6">
-        <v>110.6127928528186</v>
+        <v>2.246868604682222</v>
       </c>
       <c r="R6">
-        <v>110.6127928528186</v>
+        <v>20.22181744214</v>
       </c>
       <c r="S6">
-        <v>0.1486195455020159</v>
+        <v>0.001866219340413157</v>
       </c>
       <c r="T6">
-        <v>0.1486195455020159</v>
+        <v>0.001866219340413157</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>130.371518409563</v>
+        <v>140.5890806666667</v>
       </c>
       <c r="H7">
-        <v>130.371518409563</v>
+        <v>421.767242</v>
       </c>
       <c r="I7">
-        <v>0.8169486296333808</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="J7">
-        <v>0.8169486296333808</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5371082871898289</v>
+        <v>3.745615666666667</v>
       </c>
       <c r="N7">
-        <v>0.5371082871898289</v>
+        <v>11.236847</v>
       </c>
       <c r="O7">
-        <v>0.1151649701237495</v>
+        <v>0.5698406620242048</v>
       </c>
       <c r="P7">
-        <v>0.1151649701237495</v>
+        <v>0.5698406620242049</v>
       </c>
       <c r="Q7">
-        <v>70.02362295129764</v>
+        <v>526.5926631073305</v>
       </c>
       <c r="R7">
-        <v>70.02362295129764</v>
+        <v>4739.333967965975</v>
       </c>
       <c r="S7">
-        <v>0.09408386452436639</v>
+        <v>0.4373808999612419</v>
       </c>
       <c r="T7">
-        <v>0.09408386452436639</v>
+        <v>0.437380899961242</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,122 +903,122 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.7269460873118</v>
+        <v>140.5890806666667</v>
       </c>
       <c r="H8">
-        <v>6.7269460873118</v>
+        <v>421.767242</v>
       </c>
       <c r="I8">
-        <v>0.04215314398949194</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="J8">
-        <v>0.04215314398949194</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.27826527842277</v>
+        <v>1.578165333333333</v>
       </c>
       <c r="N8">
-        <v>3.27826527842277</v>
+        <v>4.734496</v>
       </c>
       <c r="O8">
-        <v>0.7029147228812913</v>
+        <v>0.2400947823700856</v>
       </c>
       <c r="P8">
-        <v>0.7029147228812913</v>
+        <v>0.2400947823700856</v>
       </c>
       <c r="Q8">
-        <v>22.05271378785618</v>
+        <v>221.8728133533369</v>
       </c>
       <c r="R8">
-        <v>22.05271378785618</v>
+        <v>1996.855320180032</v>
       </c>
       <c r="S8">
-        <v>0.0296300655259489</v>
+        <v>0.1842846237332322</v>
       </c>
       <c r="T8">
-        <v>0.0296300655259489</v>
+        <v>0.1842846237332323</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.7269460873118</v>
+        <v>140.5890806666667</v>
       </c>
       <c r="H9">
-        <v>6.7269460873118</v>
+        <v>421.767242</v>
       </c>
       <c r="I9">
-        <v>0.04215314398949194</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="J9">
-        <v>0.04215314398949194</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.848442928349793</v>
+        <v>0.2865006666666667</v>
       </c>
       <c r="N9">
-        <v>0.848442928349793</v>
+        <v>0.859502</v>
       </c>
       <c r="O9">
-        <v>0.1819203069949593</v>
+        <v>0.04358688773560128</v>
       </c>
       <c r="P9">
-        <v>0.1819203069949593</v>
+        <v>0.04358688773560129</v>
       </c>
       <c r="Q9">
-        <v>5.707429837170006</v>
+        <v>40.27886533705378</v>
       </c>
       <c r="R9">
-        <v>5.707429837170006</v>
+        <v>362.509788033484</v>
       </c>
       <c r="S9">
-        <v>0.007668512895371096</v>
+        <v>0.03345509272115988</v>
       </c>
       <c r="T9">
-        <v>0.007668512895371096</v>
+        <v>0.03345509272115989</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.7269460873118</v>
+        <v>140.5890806666667</v>
       </c>
       <c r="H10">
-        <v>6.7269460873118</v>
+        <v>421.767242</v>
       </c>
       <c r="I10">
-        <v>0.04215314398949194</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="J10">
-        <v>0.04215314398949194</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.5371082871898289</v>
+        <v>0.4218766666666667</v>
       </c>
       <c r="N10">
-        <v>0.5371082871898289</v>
+        <v>1.26563</v>
       </c>
       <c r="O10">
-        <v>0.1151649701237495</v>
+        <v>0.06418236691108228</v>
       </c>
       <c r="P10">
-        <v>0.1151649701237495</v>
+        <v>0.0641823669110823</v>
       </c>
       <c r="Q10">
-        <v>3.613098490974362</v>
+        <v>59.31125272138444</v>
       </c>
       <c r="R10">
-        <v>3.613098490974362</v>
+        <v>533.80127449246</v>
       </c>
       <c r="S10">
-        <v>0.00485456556817195</v>
+        <v>0.04926314191320274</v>
       </c>
       <c r="T10">
-        <v>0.00485456556817195</v>
+        <v>0.04926314191320275</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>19.0822971237213</v>
+        <v>140.5890806666667</v>
       </c>
       <c r="H11">
-        <v>19.0822971237213</v>
+        <v>421.767242</v>
       </c>
       <c r="I11">
-        <v>0.1195756302884144</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="J11">
-        <v>0.1195756302884144</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.27826527842277</v>
+        <v>0.5409346666666667</v>
       </c>
       <c r="N11">
-        <v>3.27826527842277</v>
+        <v>1.622804</v>
       </c>
       <c r="O11">
-        <v>0.7029147228812913</v>
+        <v>0.08229530095902593</v>
       </c>
       <c r="P11">
-        <v>0.7029147228812913</v>
+        <v>0.08229530095902593</v>
       </c>
       <c r="Q11">
-        <v>62.55683209324223</v>
+        <v>76.04950748739644</v>
       </c>
       <c r="R11">
-        <v>62.55683209324223</v>
+        <v>684.445567386568</v>
       </c>
       <c r="S11">
-        <v>0.08405147102753656</v>
+        <v>0.06316571490033665</v>
       </c>
       <c r="T11">
-        <v>0.08405147102753656</v>
+        <v>0.06316571490033665</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>19.0822971237213</v>
+        <v>7.122973333333334</v>
       </c>
       <c r="H12">
-        <v>19.0822971237213</v>
+        <v>21.36892</v>
       </c>
       <c r="I12">
-        <v>0.1195756302884144</v>
+        <v>0.03888804453304686</v>
       </c>
       <c r="J12">
-        <v>0.1195756302884144</v>
+        <v>0.03888804453304686</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.848442928349793</v>
+        <v>3.745615666666667</v>
       </c>
       <c r="N12">
-        <v>0.848442928349793</v>
+        <v>11.236847</v>
       </c>
       <c r="O12">
-        <v>0.1819203069949593</v>
+        <v>0.5698406620242048</v>
       </c>
       <c r="P12">
-        <v>0.1819203069949593</v>
+        <v>0.5698406620242049</v>
       </c>
       <c r="Q12">
-        <v>16.19024005129093</v>
+        <v>26.67992051058223</v>
       </c>
       <c r="R12">
-        <v>16.19024005129093</v>
+        <v>240.1192845952401</v>
       </c>
       <c r="S12">
-        <v>0.0217532353711841</v>
+        <v>0.02215998904153818</v>
       </c>
       <c r="T12">
-        <v>0.0217532353711841</v>
+        <v>0.02215998904153818</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>19.0822971237213</v>
+        <v>7.122973333333334</v>
       </c>
       <c r="H13">
-        <v>19.0822971237213</v>
+        <v>21.36892</v>
       </c>
       <c r="I13">
-        <v>0.1195756302884144</v>
+        <v>0.03888804453304686</v>
       </c>
       <c r="J13">
-        <v>0.1195756302884144</v>
+        <v>0.03888804453304686</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.5371082871898289</v>
+        <v>1.578165333333333</v>
       </c>
       <c r="N13">
-        <v>0.5371082871898289</v>
+        <v>4.734496</v>
       </c>
       <c r="O13">
-        <v>0.1151649701237495</v>
+        <v>0.2400947823700856</v>
       </c>
       <c r="P13">
-        <v>0.1151649701237495</v>
+        <v>0.2400947823700856</v>
       </c>
       <c r="Q13">
-        <v>10.24925992376935</v>
+        <v>11.24122958492445</v>
       </c>
       <c r="R13">
-        <v>10.24925992376935</v>
+        <v>101.17106626432</v>
       </c>
       <c r="S13">
-        <v>0.01377092388969376</v>
+        <v>0.009336816588960083</v>
       </c>
       <c r="T13">
-        <v>0.01377092388969376</v>
+        <v>0.009336816588960085</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.350623411838624</v>
+        <v>7.122973333333334</v>
       </c>
       <c r="H14">
-        <v>0.350623411838624</v>
+        <v>21.36892</v>
       </c>
       <c r="I14">
-        <v>0.002197115745166725</v>
+        <v>0.03888804453304686</v>
       </c>
       <c r="J14">
-        <v>0.002197115745166725</v>
+        <v>0.03888804453304686</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>3.27826527842277</v>
+        <v>0.2865006666666667</v>
       </c>
       <c r="N14">
-        <v>3.27826527842277</v>
+        <v>0.859502</v>
       </c>
       <c r="O14">
-        <v>0.7029147228812913</v>
+        <v>0.04358688773560128</v>
       </c>
       <c r="P14">
-        <v>0.7029147228812913</v>
+        <v>0.04358688773560129</v>
       </c>
       <c r="Q14">
-        <v>1.149436556832688</v>
+        <v>2.040736608648889</v>
       </c>
       <c r="R14">
-        <v>1.149436556832688</v>
+        <v>18.36662947784</v>
       </c>
       <c r="S14">
-        <v>0.00154438500515199</v>
+        <v>0.001695008831318977</v>
       </c>
       <c r="T14">
-        <v>0.00154438500515199</v>
+        <v>0.001695008831318977</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,60 +1337,60 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.350623411838624</v>
+        <v>7.122973333333334</v>
       </c>
       <c r="H15">
-        <v>0.350623411838624</v>
+        <v>21.36892</v>
       </c>
       <c r="I15">
-        <v>0.002197115745166725</v>
+        <v>0.03888804453304686</v>
       </c>
       <c r="J15">
-        <v>0.002197115745166725</v>
+        <v>0.03888804453304686</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.848442928349793</v>
+        <v>0.4218766666666667</v>
       </c>
       <c r="N15">
-        <v>0.848442928349793</v>
+        <v>1.26563</v>
       </c>
       <c r="O15">
-        <v>0.1819203069949593</v>
+        <v>0.06418236691108228</v>
       </c>
       <c r="P15">
-        <v>0.1819203069949593</v>
+        <v>0.0641823669110823</v>
       </c>
       <c r="Q15">
-        <v>0.2974839542883576</v>
+        <v>3.005016246622223</v>
       </c>
       <c r="R15">
-        <v>0.2974839542883576</v>
+        <v>27.0451462196</v>
       </c>
       <c r="S15">
-        <v>0.0003996999708641893</v>
+        <v>0.002495926742674521</v>
       </c>
       <c r="T15">
-        <v>0.0003996999708641893</v>
+        <v>0.002495926742674522</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,52 +1402,672 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.350623411838624</v>
+        <v>7.122973333333334</v>
       </c>
       <c r="H16">
-        <v>0.350623411838624</v>
+        <v>21.36892</v>
       </c>
       <c r="I16">
-        <v>0.002197115745166725</v>
+        <v>0.03888804453304686</v>
       </c>
       <c r="J16">
-        <v>0.002197115745166725</v>
+        <v>0.03888804453304686</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.5371082871898289</v>
+        <v>0.5409346666666667</v>
       </c>
       <c r="N16">
-        <v>0.5371082871898289</v>
+        <v>1.622804</v>
       </c>
       <c r="O16">
-        <v>0.1151649701237495</v>
+        <v>0.08229530095902593</v>
       </c>
       <c r="P16">
-        <v>0.1151649701237495</v>
+        <v>0.08229530095902593</v>
       </c>
       <c r="Q16">
-        <v>0.1883227401812973</v>
+        <v>3.853063205742223</v>
       </c>
       <c r="R16">
-        <v>0.1883227401812973</v>
+        <v>34.67756885168</v>
       </c>
       <c r="S16">
-        <v>0.0002530307691505455</v>
+        <v>0.003200303328555094</v>
       </c>
       <c r="T16">
-        <v>0.0002530307691505455</v>
+        <v>0.003200303328555094</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>30.91341533333334</v>
+      </c>
+      <c r="H17">
+        <v>92.74024600000001</v>
+      </c>
+      <c r="I17">
+        <v>0.1687725358349285</v>
+      </c>
+      <c r="J17">
+        <v>0.1687725358349285</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.745615666666667</v>
+      </c>
+      <c r="N17">
+        <v>11.236847</v>
+      </c>
+      <c r="O17">
+        <v>0.5698406620242048</v>
+      </c>
+      <c r="P17">
+        <v>0.5698406620242049</v>
+      </c>
+      <c r="Q17">
+        <v>115.7897727827069</v>
+      </c>
+      <c r="R17">
+        <v>1042.107955044362</v>
+      </c>
+      <c r="S17">
+        <v>0.0961734535516795</v>
+      </c>
+      <c r="T17">
+        <v>0.09617345355167951</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>30.91341533333334</v>
+      </c>
+      <c r="H18">
+        <v>92.74024600000001</v>
+      </c>
+      <c r="I18">
+        <v>0.1687725358349285</v>
+      </c>
+      <c r="J18">
+        <v>0.1687725358349285</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.578165333333333</v>
+      </c>
+      <c r="N18">
+        <v>4.734496</v>
+      </c>
+      <c r="O18">
+        <v>0.2400947823700856</v>
+      </c>
+      <c r="P18">
+        <v>0.2400947823700856</v>
+      </c>
+      <c r="Q18">
+        <v>48.78648041400179</v>
+      </c>
+      <c r="R18">
+        <v>439.0783237260161</v>
+      </c>
+      <c r="S18">
+        <v>0.04052140526133464</v>
+      </c>
+      <c r="T18">
+        <v>0.04052140526133464</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>30.91341533333334</v>
+      </c>
+      <c r="H19">
+        <v>92.74024600000001</v>
+      </c>
+      <c r="I19">
+        <v>0.1687725358349285</v>
+      </c>
+      <c r="J19">
+        <v>0.1687725358349285</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.2865006666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.859502</v>
+      </c>
+      <c r="O19">
+        <v>0.04358688773560128</v>
+      </c>
+      <c r="P19">
+        <v>0.04358688773560129</v>
+      </c>
+      <c r="Q19">
+        <v>8.856714101943558</v>
+      </c>
+      <c r="R19">
+        <v>79.71042691749201</v>
+      </c>
+      <c r="S19">
+        <v>0.007356269572289773</v>
+      </c>
+      <c r="T19">
+        <v>0.007356269572289774</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>30.91341533333334</v>
+      </c>
+      <c r="H20">
+        <v>92.74024600000001</v>
+      </c>
+      <c r="I20">
+        <v>0.1687725358349285</v>
+      </c>
+      <c r="J20">
+        <v>0.1687725358349285</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.4218766666666667</v>
+      </c>
+      <c r="N20">
+        <v>1.26563</v>
+      </c>
+      <c r="O20">
+        <v>0.06418236691108228</v>
+      </c>
+      <c r="P20">
+        <v>0.0641823669110823</v>
+      </c>
+      <c r="Q20">
+        <v>13.04164861610889</v>
+      </c>
+      <c r="R20">
+        <v>117.37483754498</v>
+      </c>
+      <c r="S20">
+        <v>0.01083222081947116</v>
+      </c>
+      <c r="T20">
+        <v>0.01083222081947117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>30.91341533333334</v>
+      </c>
+      <c r="H21">
+        <v>92.74024600000001</v>
+      </c>
+      <c r="I21">
+        <v>0.1687725358349285</v>
+      </c>
+      <c r="J21">
+        <v>0.1687725358349285</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.5409346666666667</v>
+      </c>
+      <c r="N21">
+        <v>1.622804</v>
+      </c>
+      <c r="O21">
+        <v>0.08229530095902593</v>
+      </c>
+      <c r="P21">
+        <v>0.08229530095902593</v>
+      </c>
+      <c r="Q21">
+        <v>16.72213801886489</v>
+      </c>
+      <c r="R21">
+        <v>150.499242169784</v>
+      </c>
+      <c r="S21">
+        <v>0.01388918663015343</v>
+      </c>
+      <c r="T21">
+        <v>0.01388918663015343</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.3870006666666667</v>
+      </c>
+      <c r="H22">
+        <v>1.161002</v>
+      </c>
+      <c r="I22">
+        <v>0.002112839463995207</v>
+      </c>
+      <c r="J22">
+        <v>0.002112839463995207</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.745615666666667</v>
+      </c>
+      <c r="N22">
+        <v>11.236847</v>
+      </c>
+      <c r="O22">
+        <v>0.5698406620242048</v>
+      </c>
+      <c r="P22">
+        <v>0.5698406620242049</v>
+      </c>
+      <c r="Q22">
+        <v>1.449555760077111</v>
+      </c>
+      <c r="R22">
+        <v>13.046001840694</v>
+      </c>
+      <c r="S22">
+        <v>0.001203981838913895</v>
+      </c>
+      <c r="T22">
+        <v>0.001203981838913895</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.3870006666666667</v>
+      </c>
+      <c r="H23">
+        <v>1.161002</v>
+      </c>
+      <c r="I23">
+        <v>0.002112839463995207</v>
+      </c>
+      <c r="J23">
+        <v>0.002112839463995207</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.578165333333333</v>
+      </c>
+      <c r="N23">
+        <v>4.734496</v>
+      </c>
+      <c r="O23">
+        <v>0.2400947823700856</v>
+      </c>
+      <c r="P23">
+        <v>0.2400947823700856</v>
+      </c>
+      <c r="Q23">
+        <v>0.6107510361102223</v>
+      </c>
+      <c r="R23">
+        <v>5.496759324992</v>
+      </c>
+      <c r="S23">
+        <v>0.0005072817312908577</v>
+      </c>
+      <c r="T23">
+        <v>0.0005072817312908577</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.3870006666666667</v>
+      </c>
+      <c r="H24">
+        <v>1.161002</v>
+      </c>
+      <c r="I24">
+        <v>0.002112839463995207</v>
+      </c>
+      <c r="J24">
+        <v>0.002112839463995207</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.2865006666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.859502</v>
+      </c>
+      <c r="O24">
+        <v>0.04358688773560128</v>
+      </c>
+      <c r="P24">
+        <v>0.04358688773560129</v>
+      </c>
+      <c r="Q24">
+        <v>0.1108759490004445</v>
+      </c>
+      <c r="R24">
+        <v>0.9978835410040001</v>
+      </c>
+      <c r="S24">
+        <v>9.209209652050708E-05</v>
+      </c>
+      <c r="T24">
+        <v>9.209209652050709E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.3870006666666667</v>
+      </c>
+      <c r="H25">
+        <v>1.161002</v>
+      </c>
+      <c r="I25">
+        <v>0.002112839463995207</v>
+      </c>
+      <c r="J25">
+        <v>0.002112839463995207</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.4218766666666667</v>
+      </c>
+      <c r="N25">
+        <v>1.26563</v>
+      </c>
+      <c r="O25">
+        <v>0.06418236691108228</v>
+      </c>
+      <c r="P25">
+        <v>0.0641823669110823</v>
+      </c>
+      <c r="Q25">
+        <v>0.1632665512511111</v>
+      </c>
+      <c r="R25">
+        <v>1.46939896126</v>
+      </c>
+      <c r="S25">
+        <v>0.0001356070377023548</v>
+      </c>
+      <c r="T25">
+        <v>0.0001356070377023548</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.3870006666666667</v>
+      </c>
+      <c r="H26">
+        <v>1.161002</v>
+      </c>
+      <c r="I26">
+        <v>0.002112839463995207</v>
+      </c>
+      <c r="J26">
+        <v>0.002112839463995207</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.5409346666666667</v>
+      </c>
+      <c r="N26">
+        <v>1.622804</v>
+      </c>
+      <c r="O26">
+        <v>0.08229530095902593</v>
+      </c>
+      <c r="P26">
+        <v>0.08229530095902593</v>
+      </c>
+      <c r="Q26">
+        <v>0.2093420766231111</v>
+      </c>
+      <c r="R26">
+        <v>1.884078689608</v>
+      </c>
+      <c r="S26">
+        <v>0.0001738767595675926</v>
+      </c>
+      <c r="T26">
+        <v>0.0001738767595675926</v>
       </c>
     </row>
   </sheetData>
